--- a/egs/cvr/result/train_val_log_xdeepfm.xlsx
+++ b/egs/cvr/result/train_val_log_xdeepfm.xlsx
@@ -466,19 +466,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4103910000283721</v>
+        <v>0.4088954429023337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4103790358171107</v>
+        <v>0.4088921046641067</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6678535480208347</v>
+        <v>0.670240473414578</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4055805164317249</v>
+        <v>0.4076792610733458</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6790079728580868</v>
+        <v>0.6788698661949686</v>
       </c>
     </row>
     <row r="3">
@@ -486,19 +486,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4050889665359617</v>
+        <v>0.403948649317349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4051002259694491</v>
+        <v>0.4040534707023251</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68164475152559</v>
+        <v>0.6833562285758769</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4040722185420357</v>
+        <v>0.4063829874048516</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6832703831214506</v>
+        <v>0.6828897815833528</v>
       </c>
     </row>
     <row r="4">
@@ -506,19 +506,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4033819481499896</v>
+        <v>0.4023515063104003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4033861126146865</v>
+        <v>0.4023325093869151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6870750018297365</v>
+        <v>0.6882397521285299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4037585985383655</v>
+        <v>0.405942887690966</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6848467799093905</v>
+        <v>0.6842796036911099</v>
       </c>
     </row>
     <row r="5">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4022047420220955</v>
+        <v>0.4013524262919938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4022371210747063</v>
+        <v>0.4013701328938321</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6900713286066418</v>
+        <v>0.6912499285927999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4036608444926273</v>
+        <v>0.4055443709723871</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6853696107479317</v>
+        <v>0.685943777837748</v>
       </c>
     </row>
     <row r="6">
@@ -546,19 +546,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.401373588589674</v>
+        <v>0.400471397163465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4013225516824967</v>
+        <v>0.4005135134341272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6923481878973685</v>
+        <v>0.6931740074054651</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4034486554298553</v>
+        <v>0.4054541673771256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6857307122180878</v>
+        <v>0.6861116488372028</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4006669940670965</v>
+        <v>0.3998370496682344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4006509212473333</v>
+        <v>0.3999026213474405</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6942980814670665</v>
+        <v>0.6952659178681645</v>
       </c>
       <c r="E7" t="n">
-        <v>0.403807791274702</v>
+        <v>0.4053907510847411</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6855345528150611</v>
+        <v>0.6864756020278796</v>
       </c>
     </row>
     <row r="8">
@@ -586,19 +586,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4001184839905277</v>
+        <v>0.3993443145318681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4001023947508455</v>
+        <v>0.3993035424169823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6956045559175048</v>
+        <v>0.6963196992311188</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4037338326282179</v>
+        <v>0.405657310529597</v>
       </c>
       <c r="F8" t="n">
-        <v>0.685664670622685</v>
+        <v>0.6862910719367954</v>
       </c>
     </row>
     <row r="9">
@@ -606,19 +606,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3996306158494112</v>
+        <v>0.3988758247091727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3995974394772737</v>
+        <v>0.39878172346335</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6968035854034339</v>
+        <v>0.69763278702846</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4039060918341247</v>
+        <v>0.4055011857698337</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6856150014793256</v>
+        <v>0.6864109708359207</v>
       </c>
     </row>
     <row r="10">
@@ -626,19 +626,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3992013740207244</v>
+        <v>0.3984832001699789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3992386198136889</v>
+        <v>0.3985096303243469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6978134683966287</v>
+        <v>0.6985054045097127</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4040658343924841</v>
+        <v>0.4055588048083842</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6855283372880906</v>
+        <v>0.6868234591233766</v>
       </c>
     </row>
     <row r="11">
@@ -646,19 +646,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3988096726499226</v>
+        <v>0.3981240770148445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3988490552030052</v>
+        <v>0.398064969012975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6987168575210719</v>
+        <v>0.6994290182957631</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4042761484976318</v>
+        <v>0.4059863675896697</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6852519271837707</v>
+        <v>0.6860553645345512</v>
       </c>
     </row>
     <row r="12">
@@ -666,19 +666,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3984675942377984</v>
+        <v>0.3978130865611386</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3984671851457332</v>
+        <v>0.3977924464606586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6994905836875089</v>
+        <v>0.700364680025339</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4045594628158527</v>
+        <v>0.4057958777383431</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6858563372656499</v>
+        <v>0.6864554222072672</v>
       </c>
     </row>
     <row r="13">
@@ -686,19 +686,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3981036406555334</v>
+        <v>0.3975034647618975</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3981313423905155</v>
+        <v>0.3974537128208603</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7003776143254921</v>
+        <v>0.7009516367693756</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4044574596062361</v>
+        <v>0.4061807075554072</v>
       </c>
       <c r="F13" t="n">
-        <v>0.685825874145283</v>
+        <v>0.6862241447332489</v>
       </c>
     </row>
     <row r="14">
@@ -706,19 +706,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3978211574964887</v>
+        <v>0.3972122110088465</v>
       </c>
       <c r="C14" t="n">
-        <v>0.397841893707947</v>
+        <v>0.3972523686212166</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7009167782816024</v>
+        <v>0.7017095323407452</v>
       </c>
       <c r="E14" t="n">
-        <v>0.404523236588362</v>
+        <v>0.4064016987065242</v>
       </c>
       <c r="F14" t="n">
-        <v>0.685768718556931</v>
+        <v>0.6860974011580919</v>
       </c>
     </row>
     <row r="15">
@@ -726,19 +726,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3974842065605577</v>
+        <v>0.3969106138849621</v>
       </c>
       <c r="C15" t="n">
-        <v>0.397497764032842</v>
+        <v>0.396916791823056</v>
       </c>
       <c r="D15" t="n">
-        <v>0.701901905993613</v>
+        <v>0.7023764203057383</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4047598330791369</v>
+        <v>0.4065021412371521</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6853310477312599</v>
+        <v>0.6861148807303294</v>
       </c>
     </row>
     <row r="16">
@@ -746,19 +746,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3971589357652991</v>
+        <v>0.3966095040326323</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3971131123734897</v>
+        <v>0.3965607162082509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7026385481830758</v>
+        <v>0.7032351575241957</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4048906130884687</v>
+        <v>0.4064592961103841</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6854173676668017</v>
+        <v>0.6859894766064416</v>
       </c>
     </row>
     <row r="17">
@@ -766,19 +766,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3968376288782458</v>
+        <v>0.3963056921030728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3968759615855995</v>
+        <v>0.3963000989031616</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7032889232500359</v>
+        <v>0.7039102216543213</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4051315993951006</v>
+        <v>0.4067150343994562</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6850578407571197</v>
+        <v>0.6855244355354569</v>
       </c>
     </row>
     <row r="18">
@@ -786,19 +786,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3965032921909764</v>
+        <v>0.3960065068348642</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3965072011229143</v>
+        <v>0.3960843795257061</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7040334434134136</v>
+        <v>0.7048180730557008</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4051609669830632</v>
+        <v>0.4068296909470966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6849052689303871</v>
+        <v>0.6854361077962472</v>
       </c>
     </row>
     <row r="19">
@@ -806,19 +806,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.396213529302715</v>
+        <v>0.3956921327754759</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3962180828562633</v>
+        <v>0.3956915251152534</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7048558646414256</v>
+        <v>0.7054493463814457</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4052885061093945</v>
+        <v>0.4071319808144872</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6848375500719162</v>
+        <v>0.6857939040470769</v>
       </c>
     </row>
     <row r="20">
@@ -826,19 +826,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3958268927261475</v>
+        <v>0.3953778763897383</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3958640795125798</v>
+        <v>0.3953626636093684</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7056280879205569</v>
+        <v>0.7061352615218135</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4057953786543778</v>
+        <v>0.4071104307659505</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6849009809376092</v>
+        <v>0.6854517062666028</v>
       </c>
     </row>
     <row r="21">
@@ -846,19 +846,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.395525066219279</v>
+        <v>0.3950726309512279</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3955242351370711</v>
+        <v>0.3950429934786987</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7066379537873456</v>
+        <v>0.7069525955245722</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4060332971105944</v>
+        <v>0.4073361720754223</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6846509972951769</v>
+        <v>0.6854872644286275</v>
       </c>
     </row>
   </sheetData>
